--- a/hrmcore/src/test/resources/empty.xlsx
+++ b/hrmcore/src/test/resources/empty.xlsx
@@ -12,17 +12,12 @@
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <webPublishing codePage="65001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,32 +26,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,11 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="normální" xfId="0" builtinId="0"/>
@@ -370,33 +343,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="3"/>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="C134" s="3"/>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="3"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
